--- a/projectTable.xlsx
+++ b/projectTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="426" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="856" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -961,6 +961,15 @@
 Cohesin-mediated DNA loop extrusion resolves sister chromatids in G2 phase
 Experiment Description
 Immunofluorescence of nuclear Sororin fluorescence and SCC1 axis formation in WAPL depleted G2 cells, as in Appendix Fig. S2D of Batty et al, 2023.</t>
+  </si>
+  <si>
+    <t>idr0150-friedman-cafs/experimentA</t>
+  </si>
+  <si>
+    <t>Publication Title
+Cancer-associated fibroblast compositions change with breast cancer progression linking the ratio of S100A4+and PDPN+CAFs to clinical outcome
+Experiment Description
+Immunofluorescent staining performed on FFPE sections from a cohort of triple-negative breast cancer patients and a cohort of breast cancer patients.</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,816 +1039,816 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>351</v>
+        <v>754</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>404</v>
+        <v>1701</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>405</v>
+        <v>1902</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>504</v>
+        <v>353</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>552</v>
+        <v>852</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>701</v>
+        <v>853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>752</v>
+        <v>854</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>754</v>
+        <v>1751</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>851</v>
+        <v>753</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>852</v>
+        <v>502</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>853</v>
+        <v>503</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>854</v>
+        <v>505</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>901</v>
+        <v>504</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>902</v>
+        <v>701</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>904</v>
+        <v>851</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1002</v>
+        <v>902</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1051</v>
+        <v>904</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1101</v>
+        <v>951</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1102</v>
+        <v>1002</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1103</v>
+        <v>1051</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1151</v>
+        <v>1103</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1157</v>
+        <v>1101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1158</v>
+        <v>1104</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1201</v>
+        <v>1159</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1202</v>
+        <v>1160</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1251</v>
+        <v>1161</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1302</v>
+        <v>1201</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1303</v>
+        <v>1202</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1304</v>
+        <v>1251</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1402</v>
+        <v>1303</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1403</v>
+        <v>1304</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1404</v>
+        <v>1351</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1451</v>
+        <v>1402</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1501</v>
+        <v>1403</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1502</v>
+        <v>1404</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1503</v>
+        <v>1451</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1602</v>
+        <v>1506</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1603</v>
+        <v>1502</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1605</v>
+        <v>1507</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1651</v>
+        <v>1606</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>1701</v>
+        <v>1602</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>1751</v>
+        <v>1603</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>1801</v>
+        <v>1651</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>1852</v>
+        <v>1801</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>1902</v>
+        <v>1854</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76">
@@ -1855,57 +1864,57 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>1951</v>
+        <v>2001</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
@@ -2042,24 +2051,24 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>2401</v>
+        <v>2451</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>2451</v>
+        <v>2401</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
@@ -2130,57 +2139,68 @@
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>2801</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
